--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1111.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1111.xlsx
@@ -354,7 +354,7 @@
         <v>1.577768755068369</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.945853507822836</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1111.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1111.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.960575887453697</v>
+        <v>1.173456311225891</v>
       </c>
       <c r="B1">
-        <v>1.577768755068369</v>
+        <v>2.390925168991089</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.945853507822836</v>
+        <v>2.36376953125</v>
       </c>
       <c r="E1">
-        <v>1.293177768590481</v>
+        <v>1.209546804428101</v>
       </c>
     </row>
   </sheetData>
